--- a/data/trans_orig/P2C_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FD16289-CE7D-4B65-A9C9-85A48EA70F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55411A63-638A-472A-BBB6-FC183D7006B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D19B6B9-9050-4807-9C26-E2E3A35A0C92}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C09C9A9-4042-4FA8-8F05-A9FE746AB83E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="585">
   <si>
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,10 +68,10 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
-  </si>
-  <si>
-    <t>SÍ</t>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sí</t>
   </si>
   <si>
     <t>19,02%</t>
@@ -101,7 +101,7 @@
     <t>22,74%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>80,98%</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>29,62%</t>
@@ -191,7 +191,7 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>55,3%</t>
@@ -248,7 +248,7 @@
     <t>45,74%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>32,31%</t>
@@ -305,7 +305,7 @@
     <t>73,81%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>11,78%</t>
@@ -362,61 +362,118 @@
     <t>87,08%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>29,16%</t>
@@ -737,52 +794,112 @@
     <t>77,74%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
   </si>
   <si>
     <t>44,78%</t>
@@ -1106,52 +1223,112 @@
     <t>88,3%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
   </si>
   <si>
     <t>31,31%</t>
@@ -1211,376 +1388,412 @@
     <t>Hogares según si tienen al menos un miembro que requiere cuidados y estos son no remunerados en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
   </si>
 </sst>
 </file>
@@ -1992,8 +2205,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02E41F69-AD23-437F-B6A6-5B5D915F9B08}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93F2BBD-A64B-4CF5-818F-27EB575253C7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2885,10 +3098,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="D19" s="7">
-        <v>77173</v>
+        <v>30809</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2900,10 +3113,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>65</v>
       </c>
       <c r="I19" s="7">
-        <v>135510</v>
+        <v>59912</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2915,10 +3128,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>215</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7">
-        <v>212683</v>
+        <v>90722</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2936,10 +3149,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="D20" s="7">
-        <v>425293</v>
+        <v>261774</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2951,10 +3164,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>529</v>
+        <v>306</v>
       </c>
       <c r="I20" s="7">
-        <v>541332</v>
+        <v>283022</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2966,10 +3179,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>969</v>
+        <v>576</v>
       </c>
       <c r="N20" s="7">
-        <v>966625</v>
+        <v>544795</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2987,10 +3200,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3002,10 +3215,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3017,10 +3230,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3034,55 +3247,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>928</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>955433</v>
+        <v>46364</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1127</v>
+        <v>67</v>
       </c>
       <c r="I22" s="7">
-        <v>1166924</v>
+        <v>75597</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>2055</v>
+        <v>117</v>
       </c>
       <c r="N22" s="7">
-        <v>2122357</v>
+        <v>121961</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,49 +3304,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2286</v>
+        <v>170</v>
       </c>
       <c r="D23" s="7">
-        <v>2321111</v>
+        <v>163519</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2170</v>
+        <v>223</v>
       </c>
       <c r="I23" s="7">
-        <v>2212274</v>
+        <v>258311</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>4456</v>
+        <v>393</v>
       </c>
       <c r="N23" s="7">
-        <v>4533383</v>
+        <v>421830</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,63 +3355,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>928</v>
+      </c>
+      <c r="D25" s="7">
+        <v>955433</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1127</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1166924</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2055</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2122357</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2286</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2321110</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2170</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2212273</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4456</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4533384</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3211,8 +3580,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E14A03C-45A1-4F74-B29A-CCD7CA9DCE2A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4197F6B0-C063-4658-980C-B85A8E5789D6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3228,7 +3597,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3704,13 @@
         <v>157283</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>193</v>
@@ -3350,13 +3719,13 @@
         <v>195789</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>347</v>
@@ -3365,13 +3734,13 @@
         <v>353073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3755,13 @@
         <v>296863</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>228</v>
@@ -3401,13 +3770,13 @@
         <v>234441</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>520</v>
@@ -3416,13 +3785,13 @@
         <v>531303</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3859,13 @@
         <v>269068</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>379</v>
@@ -3505,13 +3874,13 @@
         <v>404915</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>638</v>
@@ -3520,13 +3889,13 @@
         <v>673983</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3910,13 @@
         <v>418019</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>192</v>
@@ -3556,13 +3925,13 @@
         <v>205340</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>600</v>
@@ -3571,13 +3940,13 @@
         <v>623359</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +4014,13 @@
         <v>505977</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>546</v>
@@ -3660,13 +4029,13 @@
         <v>579821</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>1036</v>
@@ -3675,13 +4044,13 @@
         <v>1085797</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +4065,13 @@
         <v>175886</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>121</v>
@@ -3711,13 +4080,13 @@
         <v>131029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>282</v>
@@ -3726,13 +4095,13 @@
         <v>306915</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3800,13 +4169,13 @@
         <v>323625</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -3815,10 +4184,10 @@
         <v>276116</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>62</v>
@@ -3833,10 +4202,10 @@
         <v>44</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3851,13 +4220,13 @@
         <v>290992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>298</v>
@@ -3866,13 +4235,13 @@
         <v>340083</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>555</v>
@@ -3884,10 +4253,10 @@
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +4324,13 @@
         <v>114480</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -3970,13 +4339,13 @@
         <v>104994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -3985,13 +4354,13 @@
         <v>219474</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +4375,13 @@
         <v>314949</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>312</v>
@@ -4021,13 +4390,13 @@
         <v>342806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>599</v>
@@ -4036,13 +4405,13 @@
         <v>657755</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,49 +4473,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>144</v>
+        <v>66</v>
       </c>
       <c r="D19" s="7">
-        <v>164155</v>
+        <v>72588</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
+        <v>90</v>
+      </c>
+      <c r="I19" s="7">
+        <v>92073</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="I19" s="7">
-        <v>274206</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M19" s="7">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="N19" s="7">
-        <v>438361</v>
+        <v>164662</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4155,49 +4524,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="D20" s="7">
-        <v>395482</v>
+        <v>237198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
-        <v>440</v>
+        <v>254</v>
       </c>
       <c r="I20" s="7">
-        <v>468769</v>
+        <v>261923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
-        <v>800</v>
+        <v>470</v>
       </c>
       <c r="N20" s="7">
-        <v>864251</v>
+        <v>499120</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4206,10 +4575,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4221,10 +4590,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4236,10 +4605,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4253,55 +4622,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1444</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>1534588</v>
+        <v>91566</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>1707</v>
+        <v>164</v>
       </c>
       <c r="I22" s="7">
-        <v>1835841</v>
+        <v>182133</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>3151</v>
+        <v>242</v>
       </c>
       <c r="N22" s="7">
-        <v>3370428</v>
+        <v>273699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4310,49 +4679,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1765</v>
+        <v>144</v>
       </c>
       <c r="D23" s="7">
-        <v>1892191</v>
+        <v>158285</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>1591</v>
+        <v>186</v>
       </c>
       <c r="I23" s="7">
-        <v>1722468</v>
+        <v>206846</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>3356</v>
+        <v>330</v>
       </c>
       <c r="N23" s="7">
-        <v>3614660</v>
+        <v>365131</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,63 +4730,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1444</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1534588</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1707</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1835841</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3151</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3370428</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1765</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1892191</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1591</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1722468</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3356</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3614660</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3298</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3558309</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6507</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6985088</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4430,8 +4955,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51FD44E2-8ABC-4D6E-8CD8-E98B4AC31537}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B0DE0E-A6C3-40BB-BD24-06C17EC791F9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4447,7 +4972,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +5079,13 @@
         <v>96808</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
       <c r="H4" s="7">
         <v>128</v>
@@ -4569,13 +5094,13 @@
         <v>127571</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M4" s="7">
         <v>215</v>
@@ -4584,13 +5109,13 @@
         <v>224379</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +5130,13 @@
         <v>322655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="H5" s="7">
         <v>276</v>
@@ -4620,13 +5145,13 @@
         <v>268184</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="M5" s="7">
         <v>582</v>
@@ -4635,13 +5160,13 @@
         <v>590839</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,13 +5234,13 @@
         <v>224591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="H7" s="7">
         <v>333</v>
@@ -4724,13 +5249,13 @@
         <v>325689</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="M7" s="7">
         <v>547</v>
@@ -4739,13 +5264,13 @@
         <v>550280</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +5285,13 @@
         <v>365905</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="H8" s="7">
         <v>246</v>
@@ -4775,13 +5300,13 @@
         <v>237855</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M8" s="7">
         <v>599</v>
@@ -4790,13 +5315,13 @@
         <v>603760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4864,13 +5389,13 @@
         <v>372152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="H10" s="7">
         <v>437</v>
@@ -4879,13 +5404,13 @@
         <v>434827</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>794</v>
@@ -4894,13 +5419,13 @@
         <v>806978</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +5440,13 @@
         <v>296945</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="H11" s="7">
         <v>228</v>
@@ -4930,13 +5455,13 @@
         <v>226559</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -4945,13 +5470,13 @@
         <v>523505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,13 +5544,13 @@
         <v>200138</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="H13" s="7">
         <v>188</v>
@@ -5034,13 +5559,13 @@
         <v>201782</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M13" s="7">
         <v>368</v>
@@ -5049,13 +5574,13 @@
         <v>401921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,13 +5595,13 @@
         <v>445910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="H14" s="7">
         <v>414</v>
@@ -5085,13 +5610,13 @@
         <v>447295</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="M14" s="7">
         <v>816</v>
@@ -5100,13 +5625,13 @@
         <v>893204</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5174,13 +5699,13 @@
         <v>61628</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="H16" s="7">
         <v>63</v>
@@ -5189,13 +5714,13 @@
         <v>73052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="M16" s="7">
         <v>118</v>
@@ -5204,13 +5729,13 @@
         <v>134680</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5750,13 @@
         <v>416290</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>370</v>
@@ -5240,13 +5765,13 @@
         <v>423797</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M17" s="7">
         <v>739</v>
@@ -5255,13 +5780,13 @@
         <v>840087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,49 +5848,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>107373</v>
+        <v>38134</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
-        <v>167</v>
+        <v>58</v>
       </c>
       <c r="I19" s="7">
-        <v>210684</v>
+        <v>63722</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>318057</v>
+        <v>101856</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>362</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,49 +5899,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>509</v>
+        <v>287</v>
       </c>
       <c r="D20" s="7">
-        <v>483955</v>
+        <v>296196</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
-        <v>488</v>
+        <v>296</v>
       </c>
       <c r="I20" s="7">
-        <v>567247</v>
+        <v>314040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>143</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
-        <v>997</v>
+        <v>583</v>
       </c>
       <c r="N20" s="7">
-        <v>1051202</v>
+        <v>610236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5425,10 +5950,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5440,10 +5965,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5455,10 +5980,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5472,55 +5997,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1011</v>
+        <v>80</v>
       </c>
       <c r="D22" s="7">
-        <v>1062691</v>
+        <v>69239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
-        <v>1316</v>
+        <v>109</v>
       </c>
       <c r="I22" s="7">
-        <v>1373604</v>
+        <v>146962</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
-        <v>2327</v>
+        <v>189</v>
       </c>
       <c r="N22" s="7">
-        <v>2436295</v>
+        <v>216201</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,49 +6054,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2220</v>
+        <v>222</v>
       </c>
       <c r="D23" s="7">
-        <v>2331659</v>
+        <v>187759</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
-        <v>2022</v>
+        <v>192</v>
       </c>
       <c r="I23" s="7">
-        <v>2170938</v>
+        <v>253207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
-        <v>4242</v>
+        <v>414</v>
       </c>
       <c r="N23" s="7">
-        <v>4502597</v>
+        <v>440966</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,63 +6105,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1011</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1062691</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1316</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1373604</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2327</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2436295</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2220</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2331659</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2022</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2170938</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4242</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4502597</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5649,8 +6330,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E053E51A-F40A-403C-8959-92C8BADA94DE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05E585C-03AD-40D9-9D4D-16B04DD5D8A5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5666,7 +6347,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5770,46 +6451,46 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>27759</v>
+        <v>25623</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>390</v>
+        <v>449</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>392</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>34885</v>
+        <v>29028</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>393</v>
+        <v>452</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>394</v>
+        <v>453</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>62644</v>
+        <v>54651</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>396</v>
+        <v>455</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>397</v>
+        <v>456</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>398</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,46 +6502,46 @@
         <v>157</v>
       </c>
       <c r="D5" s="7">
-        <v>349920</v>
+        <v>374364</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>399</v>
+        <v>458</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>400</v>
+        <v>459</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
       <c r="H5" s="7">
         <v>184</v>
       </c>
       <c r="I5" s="7">
-        <v>320072</v>
+        <v>284172</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>402</v>
+        <v>461</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>403</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>404</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>341</v>
       </c>
       <c r="N5" s="7">
-        <v>669992</v>
+        <v>658536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>405</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,7 +6553,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5887,7 +6568,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5902,7 +6583,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5925,46 +6606,46 @@
         <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>52916</v>
+        <v>49953</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>101</v>
       </c>
       <c r="I7" s="7">
-        <v>106733</v>
+        <v>93048</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>143</v>
       </c>
       <c r="N7" s="7">
-        <v>159649</v>
+        <v>143001</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,46 +6657,46 @@
         <v>260</v>
       </c>
       <c r="D8" s="7">
-        <v>375480</v>
+        <v>373594</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="H8" s="7">
         <v>360</v>
       </c>
       <c r="I8" s="7">
-        <v>392482</v>
+        <v>419045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="M8" s="7">
         <v>620</v>
       </c>
       <c r="N8" s="7">
-        <v>767962</v>
+        <v>792639</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,7 +6708,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6042,7 +6723,7 @@
         <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6057,7 +6738,7 @@
         <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6080,46 +6761,46 @@
         <v>111</v>
       </c>
       <c r="D10" s="7">
-        <v>117638</v>
+        <v>108561</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="H10" s="7">
         <v>194</v>
       </c>
       <c r="I10" s="7">
-        <v>144514</v>
+        <v>129079</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
       </c>
       <c r="N10" s="7">
-        <v>262153</v>
+        <v>237640</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,46 +6812,46 @@
         <v>435</v>
       </c>
       <c r="D11" s="7">
-        <v>439614</v>
+        <v>427777</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="H11" s="7">
         <v>654</v>
       </c>
       <c r="I11" s="7">
-        <v>465933</v>
+        <v>462923</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>497</v>
       </c>
       <c r="M11" s="7">
         <v>1089</v>
       </c>
       <c r="N11" s="7">
-        <v>905546</v>
+        <v>890700</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>498</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>499</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6863,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6197,7 +6878,7 @@
         <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>610447</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6212,7 +6893,7 @@
         <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1167699</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6235,46 +6916,46 @@
         <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>98537</v>
+        <v>88710</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>442</v>
+        <v>501</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>443</v>
+        <v>502</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>444</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>163</v>
       </c>
       <c r="I13" s="7">
-        <v>110668</v>
+        <v>98556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>505</v>
       </c>
       <c r="M13" s="7">
         <v>256</v>
       </c>
       <c r="N13" s="7">
-        <v>209206</v>
+        <v>187266</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,46 +6967,46 @@
         <v>572</v>
       </c>
       <c r="D14" s="7">
-        <v>625453</v>
+        <v>799076</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="H14" s="7">
         <v>978</v>
       </c>
       <c r="I14" s="7">
-        <v>636593</v>
+        <v>614325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>1550</v>
       </c>
       <c r="N14" s="7">
-        <v>1262046</v>
+        <v>1413401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +7018,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6352,7 +7033,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6367,7 +7048,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6390,46 +7071,46 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>52427</v>
+        <v>48449</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="H16" s="7">
         <v>101</v>
       </c>
       <c r="I16" s="7">
-        <v>62590</v>
+        <v>56686</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="M16" s="7">
         <v>158</v>
       </c>
       <c r="N16" s="7">
-        <v>115017</v>
+        <v>105135</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,46 +7122,46 @@
         <v>606</v>
       </c>
       <c r="D17" s="7">
-        <v>547730</v>
+        <v>512785</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
       </c>
       <c r="I17" s="7">
-        <v>534473</v>
+        <v>491219</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="M17" s="7">
         <v>1507</v>
       </c>
       <c r="N17" s="7">
-        <v>1082203</v>
+        <v>1004004</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +7173,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6507,7 +7188,7 @@
         <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>597063</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6522,7 +7203,7 @@
         <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>1197220</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6542,49 +7223,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>151</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>99125</v>
+        <v>31373</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="H19" s="7">
-        <v>377</v>
+        <v>99</v>
       </c>
       <c r="I19" s="7">
-        <v>314424</v>
+        <v>252021</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="M19" s="7">
-        <v>528</v>
+        <v>148</v>
       </c>
       <c r="N19" s="7">
-        <v>413549</v>
+        <v>283394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,49 +7274,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>877</v>
+        <v>521</v>
       </c>
       <c r="D20" s="7">
-        <v>598629</v>
+        <v>336792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>541</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>542</v>
       </c>
       <c r="H20" s="7">
-        <v>1331</v>
+        <v>728</v>
       </c>
       <c r="I20" s="7">
-        <v>712213</v>
+        <v>356347</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>543</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>544</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>545</v>
       </c>
       <c r="M20" s="7">
-        <v>2208</v>
+        <v>1249</v>
       </c>
       <c r="N20" s="7">
-        <v>1310843</v>
+        <v>693139</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>546</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>494</v>
+        <v>547</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,10 +7325,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6659,10 +7340,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6674,10 +7355,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6691,55 +7372,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>469</v>
+        <v>102</v>
       </c>
       <c r="D22" s="7">
-        <v>448402</v>
+        <v>60264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>496</v>
+        <v>549</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>497</v>
+        <v>550</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>498</v>
+        <v>551</v>
       </c>
       <c r="H22" s="7">
-        <v>959</v>
+        <v>278</v>
       </c>
       <c r="I22" s="7">
-        <v>773814</v>
+        <v>134874</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>499</v>
+        <v>552</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>501</v>
+        <v>554</v>
       </c>
       <c r="M22" s="7">
-        <v>1428</v>
+        <v>380</v>
       </c>
       <c r="N22" s="7">
-        <v>1222217</v>
+        <v>195138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>502</v>
+        <v>555</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>503</v>
+        <v>556</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>504</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,49 +7429,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2907</v>
+        <v>356</v>
       </c>
       <c r="D23" s="7">
-        <v>2936826</v>
+        <v>222495</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>505</v>
+        <v>558</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>506</v>
+        <v>559</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>507</v>
+        <v>560</v>
       </c>
       <c r="H23" s="7">
-        <v>4408</v>
+        <v>603</v>
       </c>
       <c r="I23" s="7">
-        <v>3061767</v>
+        <v>290957</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>509</v>
+        <v>562</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>510</v>
+        <v>563</v>
       </c>
       <c r="M23" s="7">
-        <v>7315</v>
+        <v>959</v>
       </c>
       <c r="N23" s="7">
-        <v>5998592</v>
+        <v>513452</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>511</v>
+        <v>564</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>512</v>
+        <v>565</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>513</v>
+        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6799,63 +7480,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>881</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>469</v>
+      </c>
+      <c r="D25" s="7">
+        <v>412934</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="H25" s="7">
+        <v>959</v>
+      </c>
+      <c r="I25" s="7">
+        <v>793292</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1428</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1206225</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2907</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3046883</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4408</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2918988</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7315</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5965872</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5367</v>
       </c>
-      <c r="I24" s="7">
-        <v>3835581</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8743</v>
       </c>
-      <c r="N24" s="7">
-        <v>7220809</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
